--- a/import/COPSO.xlsx
+++ b/import/COPSO.xlsx
@@ -325,7 +325,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -385,6 +385,12 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -519,7 +525,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -620,6 +626,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -648,11 +658,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -660,15 +670,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -676,19 +686,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -951,7 +961,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,10 +1164,10 @@
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
       <c r="G17" s="21"/>
@@ -1253,7 +1263,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1266,24 +1276,24 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="26"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1352,8 +1362,8 @@
       <c r="B33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="2"/>
@@ -1397,96 +1407,96 @@
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16"/>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="16"/>
-      <c r="B38" s="31"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="16"/>
-      <c r="B39" s="31"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
-      <c r="B40" s="31"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="16"/>
-      <c r="B41" s="31"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="16"/>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="32" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
       <c r="G42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="16"/>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="21"/>
     </row>
     <row r="44" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12"/>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1528,7 +1538,7 @@
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="16"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -1541,11 +1551,11 @@
     </row>
     <row r="49" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="2"/>
@@ -1602,7 +1612,7 @@
     </row>
     <row r="54" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="16"/>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -1615,7 +1625,7 @@
     </row>
     <row r="55" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="16"/>
-      <c r="B55" s="31"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="10" t="s">
         <v>80</v>
       </c>
@@ -1626,50 +1636,50 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="16"/>
-      <c r="B56" s="31"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
       <c r="G56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="16"/>
-      <c r="B57" s="31"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
       <c r="G57" s="21"/>
     </row>
     <row r="58" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="16"/>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="32" t="s">
         <v>83</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D58" s="10"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
       <c r="G58" s="21"/>
     </row>
     <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="16"/>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="32" t="s">
         <v>85</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
       <c r="G59" s="21"/>
     </row>
     <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1681,8 +1691,8 @@
         <v>88</v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
       <c r="G60" s="21"/>
     </row>
     <row r="61" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1692,8 +1702,8 @@
         <v>89</v>
       </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
       <c r="G61" s="21"/>
     </row>
     <row r="62" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1705,8 +1715,8 @@
         <v>91</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34"/>
       <c r="G62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1716,8 +1726,8 @@
         <v>92</v>
       </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
       <c r="G63" s="21"/>
     </row>
     <row r="64" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1729,144 +1739,144 @@
         <v>94</v>
       </c>
       <c r="D64" s="10"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
       <c r="G64" s="21"/>
     </row>
     <row r="65" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="16"/>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="35" t="s">
         <v>95</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D65" s="10"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="34"/>
       <c r="G65" s="21"/>
     </row>
     <row r="66" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="16"/>
-      <c r="B66" s="34"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="34"/>
       <c r="G66" s="21"/>
     </row>
     <row r="67" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="16"/>
-      <c r="B67" s="34"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D67" s="13"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="37"/>
       <c r="G67" s="21"/>
     </row>
     <row r="68" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
       <c r="G68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="41" t="s">
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="F69" s="40"/>
+      <c r="F69" s="41"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
       <c r="G70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
       <c r="G71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
       <c r="G73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
       <c r="G74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
       <c r="G75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
       <c r="G76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
       <c r="G77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
       <c r="G78" s="2"/>
     </row>
   </sheetData>
